--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4361190080880371</v>
+        <v>0.4360621853365316</v>
       </c>
       <c r="C2">
-        <v>0.6113415747923366</v>
+        <v>0.6094159519752258</v>
       </c>
       <c r="D2">
-        <v>0.6961824707387121</v>
+        <v>0.6952771648018571</v>
       </c>
       <c r="E2">
-        <v>0.7514016920080517</v>
+        <v>0.7487255867942739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4504908731032274</v>
+        <v>0.450039492624489</v>
       </c>
       <c r="C3">
-        <v>0.6215377872305284</v>
+        <v>0.6205207970795291</v>
       </c>
       <c r="D3">
-        <v>0.702843716058245</v>
+        <v>0.7012035129671159</v>
       </c>
       <c r="E3">
-        <v>0.7545648730813738</v>
+        <v>0.7524391359638646</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4149846094840402</v>
+        <v>0.4139473131987446</v>
       </c>
       <c r="C4">
-        <v>0.5950527012310313</v>
+        <v>0.5928651984725631</v>
       </c>
       <c r="D4">
-        <v>0.6883860307848382</v>
+        <v>0.6869053491050978</v>
       </c>
       <c r="E4">
-        <v>0.7448811559344017</v>
+        <v>0.7427761591611421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4736672948114604</v>
+        <v>0.473703034265991</v>
       </c>
       <c r="C5">
-        <v>0.6414391911669668</v>
+        <v>0.6401494306782807</v>
       </c>
       <c r="D5">
-        <v>0.7054237300155883</v>
+        <v>0.7044098395282327</v>
       </c>
       <c r="E5">
-        <v>0.7612606977589702</v>
+        <v>0.7593728668952565</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4689218050150707</v>
+        <v>0.4689871014179974</v>
       </c>
       <c r="C6">
-        <v>0.6374900298291738</v>
+        <v>0.6360887822946704</v>
       </c>
       <c r="D6">
-        <v>0.703890219782307</v>
+        <v>0.7024036911943025</v>
       </c>
       <c r="E6">
-        <v>0.7597460164878718</v>
+        <v>0.7579578215545946</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4807896048221995</v>
+        <v>0.4807044994505518</v>
       </c>
       <c r="C7">
-        <v>0.6450732051148655</v>
+        <v>0.6441383609149771</v>
       </c>
       <c r="D7">
-        <v>0.7139748435405203</v>
+        <v>0.7127657133716443</v>
       </c>
       <c r="E7">
-        <v>0.7618606137410088</v>
+        <v>0.7598586426095999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.416763596750062</v>
+        <v>0.4166872841406259</v>
       </c>
       <c r="C8">
-        <v>0.5899526949008207</v>
+        <v>0.5873098263957595</v>
       </c>
       <c r="D8">
-        <v>0.6871337866512153</v>
+        <v>0.6845477254926853</v>
       </c>
       <c r="E8">
-        <v>0.7409044218325205</v>
+        <v>0.7388605506954972</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4752164786658356</v>
+        <v>0.4753935026063243</v>
       </c>
       <c r="C9">
-        <v>0.6404118552733739</v>
+        <v>0.6392664312515203</v>
       </c>
       <c r="D9">
-        <v>0.7111870478879032</v>
+        <v>0.7101543221519784</v>
       </c>
       <c r="E9">
-        <v>0.7600415606603357</v>
+        <v>0.7583282497459432</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4846249650250242</v>
+        <v>0.4848457968482907</v>
       </c>
       <c r="C10">
-        <v>0.6465219778502527</v>
+        <v>0.6452139183127141</v>
       </c>
       <c r="D10">
-        <v>0.7146829984201724</v>
+        <v>0.7122758823361749</v>
       </c>
       <c r="E10">
-        <v>0.7606709418732929</v>
+        <v>0.758778634037358</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4841154737315502</v>
+        <v>0.4844162104220959</v>
       </c>
       <c r="C11">
-        <v>0.6469575715967489</v>
+        <v>0.6454645891659274</v>
       </c>
       <c r="D11">
-        <v>0.7134427577460672</v>
+        <v>0.712790944671245</v>
       </c>
       <c r="E11">
-        <v>0.7617886162681718</v>
+        <v>0.7592666848883107</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4751968545198842</v>
+        <v>0.4749351916719513</v>
       </c>
       <c r="C12">
-        <v>0.6368763972025974</v>
+        <v>0.6356261515511745</v>
       </c>
       <c r="D12">
-        <v>0.7079219371201986</v>
+        <v>0.7060317019685548</v>
       </c>
       <c r="E12">
-        <v>0.7546460904370509</v>
+        <v>0.7525739072257516</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.483759456396974</v>
+        <v>0.4838181537396462</v>
       </c>
       <c r="C13">
-        <v>0.6451475984510541</v>
+        <v>0.6440407900987742</v>
       </c>
       <c r="D13">
-        <v>0.7136221310606911</v>
+        <v>0.7113333033618732</v>
       </c>
       <c r="E13">
-        <v>0.760028728961453</v>
+        <v>0.7578752676462324</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4360621853365316</v>
+        <v>0.4439061019581645</v>
       </c>
       <c r="C2">
-        <v>0.6094159519752258</v>
+        <v>0.6186420519361094</v>
       </c>
       <c r="D2">
-        <v>0.6952771648018571</v>
+        <v>0.7020555702255472</v>
       </c>
       <c r="E2">
-        <v>0.7487255867942739</v>
+        <v>0.7529190144724247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.450039492624489</v>
+        <v>0.4583711003444285</v>
       </c>
       <c r="C3">
-        <v>0.6205207970795291</v>
+        <v>0.6301294040625675</v>
       </c>
       <c r="D3">
-        <v>0.7012035129671159</v>
+        <v>0.7081315057986718</v>
       </c>
       <c r="E3">
-        <v>0.7524391359638646</v>
+        <v>0.756687626972869</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4139473131987446</v>
+        <v>0.4210993042442046</v>
       </c>
       <c r="C4">
-        <v>0.5928651984725631</v>
+        <v>0.6016267990582209</v>
       </c>
       <c r="D4">
-        <v>0.6869053491050978</v>
+        <v>0.693547048612115</v>
       </c>
       <c r="E4">
-        <v>0.7427761591611421</v>
+        <v>0.7469217645471885</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.473703034265991</v>
+        <v>0.4828622496992143</v>
       </c>
       <c r="C5">
-        <v>0.6401494306782807</v>
+        <v>0.6504375157112866</v>
       </c>
       <c r="D5">
-        <v>0.7044098395282327</v>
+        <v>0.7115205004370663</v>
       </c>
       <c r="E5">
-        <v>0.7593728668952565</v>
+        <v>0.7637190368229271</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4689871014179974</v>
+        <v>0.4779840328492355</v>
       </c>
       <c r="C6">
-        <v>0.6360887822946704</v>
+        <v>0.6462407761099619</v>
       </c>
       <c r="D6">
-        <v>0.7024036911943025</v>
+        <v>0.7094697801252308</v>
       </c>
       <c r="E6">
-        <v>0.7579578215545946</v>
+        <v>0.7622870694416859</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4807044994505518</v>
+        <v>0.4901282156980983</v>
       </c>
       <c r="C7">
-        <v>0.6441383609149771</v>
+        <v>0.6545881918591552</v>
       </c>
       <c r="D7">
-        <v>0.7127657133716443</v>
+        <v>0.7199951685803621</v>
       </c>
       <c r="E7">
-        <v>0.7598586426095999</v>
+        <v>0.764221243538187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4166872841406259</v>
+        <v>0.4238535532033515</v>
       </c>
       <c r="C8">
-        <v>0.5873098263957595</v>
+        <v>0.5957902921233157</v>
       </c>
       <c r="D8">
-        <v>0.6845477254926853</v>
+        <v>0.6909898094845424</v>
       </c>
       <c r="E8">
-        <v>0.7388605506954972</v>
+        <v>0.742960681489826</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4753935026063243</v>
+        <v>0.4846115032126928</v>
       </c>
       <c r="C9">
-        <v>0.6392664312515203</v>
+        <v>0.6495261151428007</v>
       </c>
       <c r="D9">
-        <v>0.7101543221519784</v>
+        <v>0.7173079007704015</v>
       </c>
       <c r="E9">
-        <v>0.7583282497459432</v>
+        <v>0.7626641276885489</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4848457968482907</v>
+        <v>0.4945581757406573</v>
       </c>
       <c r="C10">
-        <v>0.6452139183127141</v>
+        <v>0.6558522342525583</v>
       </c>
       <c r="D10">
-        <v>0.7122758823361749</v>
+        <v>0.7195665583922763</v>
       </c>
       <c r="E10">
-        <v>0.758778634037358</v>
+        <v>0.763161247005138</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4844162104220959</v>
+        <v>0.4940951649490354</v>
       </c>
       <c r="C11">
-        <v>0.6454645891659274</v>
+        <v>0.6560788917135243</v>
       </c>
       <c r="D11">
-        <v>0.712790944671245</v>
+        <v>0.7200733864287132</v>
       </c>
       <c r="E11">
-        <v>0.7592666848883107</v>
+        <v>0.7636471422987593</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4749351916719513</v>
+        <v>0.4846629971429635</v>
       </c>
       <c r="C12">
-        <v>0.6356261515511745</v>
+        <v>0.6462765158710355</v>
       </c>
       <c r="D12">
-        <v>0.7060317019685548</v>
+        <v>0.7133225942756337</v>
       </c>
       <c r="E12">
-        <v>0.7525739072257516</v>
+        <v>0.7569472511483959</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.4838181537396462</v>
+        <v>0.4935167979719632</v>
       </c>
       <c r="C13">
-        <v>0.6440407900987742</v>
+        <v>0.6546671971422592</v>
       </c>
       <c r="D13">
-        <v>0.7113333033618732</v>
+        <v>0.7186178328993582</v>
       </c>
       <c r="E13">
-        <v>0.7578752676462324</v>
+        <v>0.7622543408450436</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -394,7 +394,7 @@
         <v>0.6186420519361094</v>
       </c>
       <c r="D2">
-        <v>0.7020555702255472</v>
+        <v>0.7020555702255471</v>
       </c>
       <c r="E2">
         <v>0.7529190144724247</v>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4583711003444285</v>
+        <v>0.4583711003444286</v>
       </c>
       <c r="C3">
-        <v>0.6301294040625675</v>
+        <v>0.6301294040625673</v>
       </c>
       <c r="D3">
         <v>0.7081315057986718</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4210993042442046</v>
+        <v>0.4210993042442047</v>
       </c>
       <c r="C4">
         <v>0.6016267990582209</v>
       </c>
       <c r="D4">
-        <v>0.693547048612115</v>
+        <v>0.6935470486121149</v>
       </c>
       <c r="E4">
         <v>0.7469217645471885</v>
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4828622496992143</v>
+        <v>0.4828622496992144</v>
       </c>
       <c r="C5">
         <v>0.6504375157112866</v>
       </c>
       <c r="D5">
-        <v>0.7115205004370663</v>
+        <v>0.7115205004370661</v>
       </c>
       <c r="E5">
-        <v>0.7637190368229271</v>
+        <v>0.763719036822927</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4779840328492355</v>
+        <v>0.4779840328492356</v>
       </c>
       <c r="C6">
-        <v>0.6462407761099619</v>
+        <v>0.6462407761099618</v>
       </c>
       <c r="D6">
-        <v>0.7094697801252308</v>
+        <v>0.7094697801252307</v>
       </c>
       <c r="E6">
         <v>0.7622870694416859</v>
@@ -476,10 +476,10 @@
         <v>0.4901282156980983</v>
       </c>
       <c r="C7">
-        <v>0.6545881918591552</v>
+        <v>0.6545881918591551</v>
       </c>
       <c r="D7">
-        <v>0.7199951685803621</v>
+        <v>0.7199951685803618</v>
       </c>
       <c r="E7">
         <v>0.764221243538187</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4238535532033515</v>
+        <v>0.4238535532033516</v>
       </c>
       <c r="C8">
         <v>0.5957902921233157</v>
       </c>
       <c r="D8">
-        <v>0.6909898094845424</v>
+        <v>0.6909898094845421</v>
       </c>
       <c r="E8">
         <v>0.742960681489826</v>
@@ -513,7 +513,7 @@
         <v>0.6495261151428007</v>
       </c>
       <c r="D9">
-        <v>0.7173079007704015</v>
+        <v>0.7173079007704014</v>
       </c>
       <c r="E9">
         <v>0.7626641276885489</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4945581757406573</v>
+        <v>0.4945581757406574</v>
       </c>
       <c r="C10">
-        <v>0.6558522342525583</v>
+        <v>0.6558522342525581</v>
       </c>
       <c r="D10">
         <v>0.7195665583922763</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4940951649490354</v>
+        <v>0.4940951649490355</v>
       </c>
       <c r="C11">
-        <v>0.6560788917135243</v>
+        <v>0.6560788917135241</v>
       </c>
       <c r="D11">
-        <v>0.7200733864287132</v>
+        <v>0.720073386428713</v>
       </c>
       <c r="E11">
         <v>0.7636471422987593</v>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.4935167979719632</v>
+        <v>0.4935167979719633</v>
       </c>
       <c r="C13">
         <v>0.6546671971422592</v>
